--- a/data/clean_data5.xlsx
+++ b/data/clean_data5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iannnlee/Documents/GitHub/iannnlee.github.io/iannnlee.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC6BFF-1A91-2645-BA5D-C13C5B517849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7F9E9-40AA-D544-96B7-BBDFD24E1BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{840ECCB7-F51C-AF45-9F52-46DC8141EB92}"/>
+    <workbookView xWindow="28800" yWindow="-3100" windowWidth="27640" windowHeight="15920" xr2:uid="{840ECCB7-F51C-AF45-9F52-46DC8141EB92}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_data5" sheetId="2" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
